--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/104.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/104.xlsx
@@ -479,13 +479,13 @@
         <v>0.122393028171735</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.887850087603701</v>
+        <v>-1.872700153561182</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06813051651577939</v>
+        <v>-0.06266552212662341</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3274926652663429</v>
+        <v>-0.3247853523777057</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1358705846411541</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.884332941877155</v>
+        <v>-1.868955562071608</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0424960411062764</v>
+        <v>-0.03733483240753144</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3017401384227423</v>
+        <v>-0.2974729725848961</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1496943729724712</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.923125430131171</v>
+        <v>-1.90612208857332</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04144797265181058</v>
+        <v>0.04438666635127897</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.359242204962099</v>
+        <v>-0.3543438574566112</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1525103548604178</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.068399524931618</v>
+        <v>-2.049986649250643</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1664911996861798</v>
+        <v>0.1673994087191703</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4077975468159826</v>
+        <v>-0.4023262563503414</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1426858595202733</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.920071833035848</v>
+        <v>-1.906586424214104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3655259175746518</v>
+        <v>0.3671975258814731</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4496491412322466</v>
+        <v>-0.4432759378101001</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1255999569453347</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.774964584262259</v>
+        <v>-1.759979922227476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5176894940690319</v>
+        <v>0.5169937776174169</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4572894300470401</v>
+        <v>-0.4500867185479682</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.11091410771702</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.42792091335008</v>
+        <v>-1.415849760708825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7514691100410953</v>
+        <v>0.750808022010149</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.47250075083529</v>
+        <v>-0.4640278059053284</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.105038405517764</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9194647295867578</v>
+        <v>-0.9087834358296114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9104607814836777</v>
+        <v>0.9056962256035005</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4427344752323727</v>
+        <v>-0.4346597571401001</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1088901886975751</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3093001522623495</v>
+        <v>-0.2970290991926893</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9509193689775906</v>
+        <v>0.9427313215085844</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4015660051147532</v>
+        <v>-0.3944278283996546</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1189886859807599</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3724862301290434</v>
+        <v>0.3808395496057862</v>
       </c>
       <c r="F11" t="n">
-        <v>0.912875326815753</v>
+        <v>0.9042260917442057</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3226210760859172</v>
+        <v>-0.3142362762267484</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1295842262558758</v>
       </c>
       <c r="E12" t="n">
-        <v>1.156176184452564</v>
+        <v>1.161050921671232</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9135631731717614</v>
+        <v>0.9026064260683873</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2034457923357569</v>
+        <v>-0.197944595506811</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1362939107954834</v>
       </c>
       <c r="E13" t="n">
-        <v>2.017778511261348</v>
+        <v>2.017819435758502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7285655578070489</v>
+        <v>0.7181612914152514</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03978085812203271</v>
+        <v>-0.03615746610479852</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1434551679300296</v>
       </c>
       <c r="E14" t="n">
-        <v>2.883838460221655</v>
+        <v>2.87866623338906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5410148834275867</v>
+        <v>0.5309569012424754</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1323176705436206</v>
+        <v>0.1354609867288581</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1628361105321704</v>
       </c>
       <c r="E15" t="n">
-        <v>3.859481620406916</v>
+        <v>3.849541689655902</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3582177467944527</v>
+        <v>0.3488287227358941</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3124074942881175</v>
+        <v>0.3140303080021785</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2005322877897203</v>
       </c>
       <c r="E16" t="n">
-        <v>4.716240690379457</v>
+        <v>4.69758384173468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1163177661755991</v>
+        <v>0.1051453784526068</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5426046427401005</v>
+        <v>0.5444493931502649</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2508525060820656</v>
       </c>
       <c r="E17" t="n">
-        <v>5.492150268186388</v>
+        <v>5.471614040710779</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05717849146976921</v>
+        <v>-0.07151937968393977</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7770532168387166</v>
+        <v>0.778484000219979</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3038640622618311</v>
       </c>
       <c r="E18" t="n">
-        <v>6.26879806096121</v>
+        <v>6.244032444106665</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2963302347028318</v>
+        <v>-0.310930836072017</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9091889740336667</v>
+        <v>0.9085278860027205</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.35631502010698</v>
       </c>
       <c r="E19" t="n">
-        <v>6.85218463798449</v>
+        <v>6.826318781764156</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5702520603254266</v>
+        <v>-0.5852398703984517</v>
       </c>
       <c r="G19" t="n">
-        <v>1.158486844522634</v>
+        <v>1.158238149501468</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.408805768772232</v>
       </c>
       <c r="E20" t="n">
-        <v>7.35562835785603</v>
+        <v>7.323471147207857</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8425439891479145</v>
+        <v>-0.8574405061119043</v>
       </c>
       <c r="G20" t="n">
-        <v>1.373778031895899</v>
+        <v>1.372918617455669</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4583857434346204</v>
       </c>
       <c r="E21" t="n">
-        <v>7.682819712600804</v>
+        <v>7.651158317975841</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.142684251274015</v>
+        <v>-1.156103551292664</v>
       </c>
       <c r="G21" t="n">
-        <v>1.584912234769809</v>
+        <v>1.582302511066693</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5010856531783368</v>
       </c>
       <c r="E22" t="n">
-        <v>7.911493210543368</v>
+        <v>7.88022532069873</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.347344513502015</v>
+        <v>-1.361006999474905</v>
       </c>
       <c r="G22" t="n">
-        <v>1.807975928564058</v>
+        <v>1.804344666451217</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5375758769574051</v>
       </c>
       <c r="E23" t="n">
-        <v>8.089114972305666</v>
+        <v>8.057072665053347</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.554361869364164</v>
+        <v>-1.56844304442332</v>
       </c>
       <c r="G23" t="n">
-        <v>1.949458211301291</v>
+        <v>1.942359385064225</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5733709524401372</v>
       </c>
       <c r="E24" t="n">
-        <v>8.196297804370635</v>
+        <v>8.16710289770875</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.721994905782687</v>
+        <v>-1.734095177777686</v>
       </c>
       <c r="G24" t="n">
-        <v>2.052287306476744</v>
+        <v>2.042451260987736</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6119199173209176</v>
       </c>
       <c r="E25" t="n">
-        <v>8.214095238575183</v>
+        <v>8.185585030231064</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.851565011809917</v>
+        <v>-1.861786691983644</v>
       </c>
       <c r="G25" t="n">
-        <v>2.150394344288295</v>
+        <v>2.141189480466928</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6505209707095764</v>
       </c>
       <c r="E26" t="n">
-        <v>8.189216292343904</v>
+        <v>8.164142167741584</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.973482236869383</v>
+        <v>-1.982593446553032</v>
       </c>
       <c r="G26" t="n">
-        <v>2.189208081800448</v>
+        <v>2.180969665719561</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6833342486668108</v>
       </c>
       <c r="E27" t="n">
-        <v>8.110342194175526</v>
+        <v>8.083646829878267</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.036487074256807</v>
+        <v>-2.045440882028326</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24073831979359</v>
+        <v>2.230335627420914</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7065562973292226</v>
       </c>
       <c r="E28" t="n">
-        <v>8.001667191983563</v>
+        <v>7.975031640412912</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.067377986521894</v>
+        <v>-2.078128537120377</v>
       </c>
       <c r="G28" t="n">
-        <v>2.231986773479158</v>
+        <v>2.221732038903884</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7197420153529669</v>
       </c>
       <c r="E29" t="n">
-        <v>7.836390462189627</v>
+        <v>7.810301095254068</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.014082486084213</v>
+        <v>-2.02391774456366</v>
       </c>
       <c r="G29" t="n">
-        <v>2.185699593179069</v>
+        <v>2.17570457175881</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7241683917507019</v>
       </c>
       <c r="E30" t="n">
-        <v>7.597034096470796</v>
+        <v>7.56918182811938</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.998736586661092</v>
+        <v>-2.009931797661343</v>
       </c>
       <c r="G30" t="n">
-        <v>2.088848622626316</v>
+        <v>2.080567708029153</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.721844134036512</v>
       </c>
       <c r="E31" t="n">
-        <v>7.370443025825712</v>
+        <v>7.342952781872196</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.948306588033739</v>
+        <v>-1.95967100608953</v>
       </c>
       <c r="G31" t="n">
-        <v>2.035862416945971</v>
+        <v>2.026940876566439</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7132003100428318</v>
       </c>
       <c r="E32" t="n">
-        <v>7.171608208365646</v>
+        <v>7.144533505460152</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.86997473945265</v>
+        <v>-1.881504429516178</v>
       </c>
       <c r="G32" t="n">
-        <v>1.96158288059267</v>
+        <v>1.953511310538641</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6983782663567623</v>
       </c>
       <c r="E33" t="n">
-        <v>6.864644573348706</v>
+        <v>6.839398880662165</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.82717165047756</v>
+        <v>-1.839125538694278</v>
       </c>
       <c r="G33" t="n">
-        <v>1.854033302072437</v>
+        <v>1.847891479461122</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6789224867708373</v>
       </c>
       <c r="E34" t="n">
-        <v>6.570638263738314</v>
+        <v>6.548298210349694</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.770580941009436</v>
+        <v>-1.783205361371828</v>
       </c>
       <c r="G34" t="n">
-        <v>1.771277672750932</v>
+        <v>1.76444957780273</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.65662762972069</v>
       </c>
       <c r="E35" t="n">
-        <v>6.221023432591491</v>
+        <v>6.198282004326939</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.779385216964432</v>
+        <v>-1.791990749097368</v>
       </c>
       <c r="G35" t="n">
-        <v>1.646580729923249</v>
+        <v>1.641720158876673</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6332489798854496</v>
       </c>
       <c r="E36" t="n">
-        <v>5.841676954262419</v>
+        <v>5.81974929388358</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.786140907033054</v>
+        <v>-1.798908563135485</v>
       </c>
       <c r="G36" t="n">
-        <v>1.556488597477362</v>
+        <v>1.551892461643164</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6093286101141051</v>
       </c>
       <c r="E37" t="n">
-        <v>5.446505287687789</v>
+        <v>5.426774958002285</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.761592504817248</v>
+        <v>-1.775003934740291</v>
       </c>
       <c r="G37" t="n">
-        <v>1.434853121840608</v>
+        <v>1.431645270871398</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5833824188148777</v>
       </c>
       <c r="E38" t="n">
-        <v>5.101066329269777</v>
+        <v>5.081471365228705</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.75975483749313</v>
+        <v>-1.772502031346984</v>
       </c>
       <c r="G38" t="n">
-        <v>1.330223348790388</v>
+        <v>1.32687383610026</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5537552975567364</v>
       </c>
       <c r="E39" t="n">
-        <v>4.725105566070622</v>
+        <v>4.704961269356216</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.760415925524076</v>
+        <v>-1.771855109488129</v>
       </c>
       <c r="G39" t="n">
-        <v>1.240864709255026</v>
+        <v>1.236913921260562</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5195486497569405</v>
       </c>
       <c r="E40" t="n">
-        <v>4.363690313571407</v>
+        <v>4.346151018502754</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.777266587227161</v>
+        <v>-1.787677936705004</v>
       </c>
       <c r="G40" t="n">
-        <v>1.181344750202162</v>
+        <v>1.178432814827756</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4809150230445365</v>
       </c>
       <c r="E41" t="n">
-        <v>4.047949947934096</v>
+        <v>4.033064449103955</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.838295243607792</v>
+        <v>-1.849481010493315</v>
       </c>
       <c r="G41" t="n">
-        <v>1.121661093160683</v>
+        <v>1.117600123827727</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4396272386326853</v>
       </c>
       <c r="E42" t="n">
-        <v>3.634269390512092</v>
+        <v>3.619130474603422</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.82655463498201</v>
+        <v>-1.835480110409345</v>
       </c>
       <c r="G42" t="n">
-        <v>1.044294905310511</v>
+        <v>1.04089344998938</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3973620333894731</v>
       </c>
       <c r="E43" t="n">
-        <v>3.355853740298184</v>
+        <v>3.344352382578839</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.834128814993709</v>
+        <v>-1.844566135787054</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9652665532682464</v>
+        <v>0.9632470867356175</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3550692447004801</v>
       </c>
       <c r="E44" t="n">
-        <v>3.06805378808308</v>
+        <v>3.05785099613881</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.843779913235964</v>
+        <v>-1.852812421963548</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8696291514580166</v>
+        <v>0.867422376649953</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3137981820961117</v>
       </c>
       <c r="E45" t="n">
-        <v>2.810311305008335</v>
+        <v>2.800398132582384</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.817893594767053</v>
+        <v>-1.825279679493756</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8126276229992334</v>
+        <v>0.8098321650398035</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2744104306270048</v>
       </c>
       <c r="E46" t="n">
-        <v>2.585412304918651</v>
+        <v>2.575365340867389</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.762183548997297</v>
+        <v>-1.767878350178163</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7488121657643397</v>
+        <v>0.7468887143981102</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2374034361100703</v>
       </c>
       <c r="E47" t="n">
-        <v>2.345800948102168</v>
+        <v>2.337771876564414</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.726163695425452</v>
+        <v>-1.730677982265342</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6723053923543985</v>
+        <v>0.6710619172485709</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2030067141413277</v>
       </c>
       <c r="E48" t="n">
-        <v>2.146900021839007</v>
+        <v>2.136640565206369</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.629439433411964</v>
+        <v>-1.631434502648213</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5651414485188837</v>
+        <v>0.5622137729532645</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.170684699391382</v>
       </c>
       <c r="E49" t="n">
-        <v>1.97398615126852</v>
+        <v>1.965100813328778</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.582861846583995</v>
+        <v>-1.583986483246164</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5271603671218982</v>
+        <v>0.5231560624773092</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1397883104970801</v>
       </c>
       <c r="E50" t="n">
-        <v>1.880275348862762</v>
+        <v>1.872949863872229</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.500328153958593</v>
+        <v>-1.499132686435965</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4576217763619551</v>
+        <v>0.4525455646957603</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1100019524579711</v>
       </c>
       <c r="E51" t="n">
-        <v>1.704507781625357</v>
+        <v>1.696053724924851</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.479994974949631</v>
+        <v>-1.478646827572237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3946342531848654</v>
+        <v>0.3906992053816137</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08131650961325072</v>
       </c>
       <c r="E52" t="n">
-        <v>1.563489834528907</v>
+        <v>1.555995929492394</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.441540900806695</v>
+        <v>-1.440013315249472</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3374737487948309</v>
+        <v>0.333741749458227</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.05423185876327971</v>
       </c>
       <c r="E53" t="n">
-        <v>1.486630480835794</v>
+        <v>1.47898861800188</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.385051715571895</v>
+        <v>-1.383240806572838</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3047435951865045</v>
+        <v>0.3020189680875329</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02927623194451314</v>
       </c>
       <c r="E54" t="n">
-        <v>1.377776040464003</v>
+        <v>1.36965252777897</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.299399104057636</v>
+        <v>-1.296458836339046</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2636758622926482</v>
+        <v>0.2603137574495499</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.006201940124506823</v>
       </c>
       <c r="E55" t="n">
-        <v>1.255685673301194</v>
+        <v>1.248424723094634</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.260099781646561</v>
+        <v>-1.255300597345715</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2215393704154288</v>
+        <v>0.217687745625606</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01488828486010092</v>
       </c>
       <c r="E56" t="n">
-        <v>1.20714292360028</v>
+        <v>1.19846535618455</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.235215326348358</v>
+        <v>-1.229670843993576</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1996431904190149</v>
+        <v>0.1950785349672429</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03390473948996526</v>
       </c>
       <c r="E57" t="n">
-        <v>1.140849960268459</v>
+        <v>1.131590005777847</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.213803157231744</v>
+        <v>-1.208390105473591</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1580576052342507</v>
+        <v>0.1544452313508657</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.05097929724402759</v>
       </c>
       <c r="E58" t="n">
-        <v>1.067621868688188</v>
+        <v>1.060675722305888</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.220244830485667</v>
+        <v>-1.214731041503751</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1416390117799633</v>
+        <v>0.1375339699116111</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.0659287374782575</v>
       </c>
       <c r="E59" t="n">
-        <v>1.01994482950399</v>
+        <v>1.0128664655155</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.231021352399652</v>
+        <v>-1.225141603972033</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1291712063201405</v>
+        <v>0.1252518987081018</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07873481821760799</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9640167820859337</v>
+        <v>0.9597968368217265</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.233118732878785</v>
+        <v>-1.227838685736382</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0996142752603562</v>
+        <v>0.09600190137697112</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.09029422800174659</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9425487352905135</v>
+        <v>0.9385601708371376</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.228399823553126</v>
+        <v>-1.221327755641122</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08983332044059374</v>
+        <v>0.08629649947503108</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1014949309089854</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8870016004998122</v>
+        <v>0.8836269035037436</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.236125109400469</v>
+        <v>-1.229038088306813</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08801060629812753</v>
+        <v>0.08385204777965112</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1128802010373533</v>
       </c>
       <c r="E63" t="n">
-        <v>0.843347754189659</v>
+        <v>0.8408340456529418</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.279639655018388</v>
+        <v>-1.27030021256215</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05629254698479737</v>
+        <v>0.05328459644399176</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1246319925933428</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7814919507607846</v>
+        <v>0.7785894595011061</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.299838255392479</v>
+        <v>-1.290056513563156</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0357515974518234</v>
+        <v>0.03273105475804738</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1369158865850408</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7405233810715702</v>
+        <v>0.7377782917240219</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.352615903539252</v>
+        <v>-1.34293332491457</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01036873682140806</v>
+        <v>-0.01386305927069558</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1496466404740017</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6869941387943764</v>
+        <v>0.6862055552146048</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.397239345628126</v>
+        <v>-1.386307782830693</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03677448160034839</v>
+        <v>-0.03949281262283468</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1628151352127658</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6534533653385801</v>
+        <v>0.655578291152336</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.466316748785528</v>
+        <v>-1.45344284639241</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07005239386288753</v>
+        <v>-0.07285729593704536</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1762224126948374</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6135362404223946</v>
+        <v>0.6179702522870987</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.520863594424643</v>
+        <v>-1.507988118012403</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09500217095462474</v>
+        <v>-0.09719005753323269</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1895876489097557</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5443518039647443</v>
+        <v>0.5516662708214285</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.557232880241416</v>
+        <v>-1.545350609894717</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09589936185376613</v>
+        <v>-0.09741042021021479</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2023040266570027</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4533357222946532</v>
+        <v>0.4614403467502305</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.637840760471907</v>
+        <v>-1.625936453857509</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.123181835283271</v>
+        <v>-0.1243654976624891</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2131969758269998</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3389942512660074</v>
+        <v>0.3488727952712905</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.704647641046832</v>
+        <v>-1.692540285965787</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1423864425822606</v>
+        <v>-0.1423659803336837</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2212880923114844</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2357810954249574</v>
+        <v>0.2468433018094586</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.797975956806114</v>
+        <v>-1.783965612607417</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1585893954169299</v>
+        <v>-0.1566108533814549</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2263038299242611</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1521770697970714</v>
+        <v>0.1648038511881455</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.879528248509384</v>
+        <v>-1.864082398872061</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1822484768292006</v>
+        <v>-0.1796293090113562</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2282583664025417</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02414478045135213</v>
+        <v>0.0373539489173075</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.910021720946343</v>
+        <v>-1.893781778662323</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2092554969124778</v>
+        <v>-0.2064175404367726</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2275506103202176</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.04317916540492089</v>
+        <v>-0.02916095111061697</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.987584661186677</v>
+        <v>-1.970020181812082</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2419211157368309</v>
+        <v>-0.2396513801639154</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2245416125936578</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1175185144848311</v>
+        <v>-0.1031965145001161</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022158778195607</v>
+        <v>-2.006436688202495</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2552971302296442</v>
+        <v>-0.2527818476738057</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2192514505300475</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1865093465905615</v>
+        <v>-0.1699522394535996</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.046107479126197</v>
+        <v>-2.030767088770001</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.270398269679403</v>
+        <v>-0.2675697573184256</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2116961721048526</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2136926568154244</v>
+        <v>-0.1957787451959013</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.006604321238914</v>
+        <v>-1.992853690195231</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2545132687072365</v>
+        <v>-0.2509559854930969</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2017309116613813</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.2371014691874082</v>
+        <v>-0.219658189285154</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.019022545096415</v>
+        <v>-2.003353184743867</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2526134276278265</v>
+        <v>-0.2486972680540304</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1889624545747498</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2369834177533107</v>
+        <v>-0.2197809627766155</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.984353199930647</v>
+        <v>-1.972356026188093</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2228896505411843</v>
+        <v>-0.2185201734604536</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1738218190265895</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2153201925868493</v>
+        <v>-0.1973181358965334</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.969632186098682</v>
+        <v>-1.959749707045595</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2161969212374138</v>
+        <v>-0.2113882928218402</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1576942978915746</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1259694231470945</v>
+        <v>-0.106687688911161</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.908228913167181</v>
+        <v>-1.898854842290275</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2287308355003312</v>
+        <v>-0.2243975608593904</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1411208501064255</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04165416915670098</v>
+        <v>0.06039444081490697</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.837478327683837</v>
+        <v>-1.829216301316129</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1821445915671947</v>
+        <v>-0.1770967122451834</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1236913977483742</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1982187031142378</v>
+        <v>0.2161892794221277</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.722428548050605</v>
+        <v>-1.715949098337771</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1370111672830188</v>
+        <v>-0.1314344175362505</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1049821081089708</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3885978898546773</v>
+        <v>0.4024350919500316</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.551608122911448</v>
+        <v>-1.546989163799992</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1087795603233697</v>
+        <v>-0.102991892014347</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.08425005993737852</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6400395743868557</v>
+        <v>0.6515928747372027</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.384930516099555</v>
+        <v>-1.382523053853525</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.02186537248338828</v>
+        <v>-0.01599900321830061</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06160211733510221</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9173581332732174</v>
+        <v>0.9281055358334585</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.168613068259201</v>
+        <v>-1.168349420056383</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03261772538131373</v>
+        <v>0.03719969504342003</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03745581006656953</v>
       </c>
       <c r="E88" t="n">
-        <v>1.145661736722276</v>
+        <v>1.154273195334912</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9976785267337497</v>
+        <v>-0.9986622886845626</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08059855025592259</v>
+        <v>0.08525135077848743</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01310153176185043</v>
       </c>
       <c r="E89" t="n">
-        <v>1.37986633785709</v>
+        <v>1.385803537982636</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7614859394487323</v>
+        <v>-0.7650227604142951</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1355145033789823</v>
+        <v>0.1404049807888635</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.009582776021176359</v>
       </c>
       <c r="E90" t="n">
-        <v>1.57624883352617</v>
+        <v>1.57771267130898</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5018373192180922</v>
+        <v>-0.5085505107704397</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1602958604247403</v>
+        <v>0.1635493579484688</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0286670783766039</v>
       </c>
       <c r="E91" t="n">
-        <v>1.750251925328598</v>
+        <v>1.750938197665485</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.222406426670945</v>
+        <v>-0.2290550834393191</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1207690922506374</v>
+        <v>0.1224281084044884</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04165208046300081</v>
       </c>
       <c r="E92" t="n">
-        <v>1.793743647669257</v>
+        <v>1.792043707018252</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.03007230818185007</v>
+        <v>-0.03694290164632757</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1365029873871591</v>
+        <v>0.13707278230907</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04659186053460894</v>
       </c>
       <c r="E93" t="n">
-        <v>1.790501168279377</v>
+        <v>1.78925769317355</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1798923984849339</v>
+        <v>0.1718098102970549</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09926484301542746</v>
+        <v>0.1003446201326397</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0418986610696999</v>
       </c>
       <c r="E94" t="n">
-        <v>1.718784135055554</v>
+        <v>1.717328167368351</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3549060105632361</v>
+        <v>0.3470201747655196</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1038861631555663</v>
+        <v>0.1047660398443734</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0277106053957194</v>
       </c>
       <c r="E95" t="n">
-        <v>1.679968823524279</v>
+        <v>1.678346009810218</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4569244858912188</v>
+        <v>0.4507354427062645</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04287718201395161</v>
+        <v>0.04301884373486867</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.006410747776519649</v>
       </c>
       <c r="E96" t="n">
-        <v>1.56586502938295</v>
+        <v>1.562432093679393</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5256949553199672</v>
+        <v>0.5202567192558734</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02636549315118695</v>
+        <v>-0.02550607871095677</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01750816841321078</v>
       </c>
       <c r="E97" t="n">
-        <v>1.51875463708242</v>
+        <v>1.514012117469941</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5307727410052832</v>
+        <v>0.5259562424941031</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04513252313445505</v>
+        <v>-0.04425736850301187</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03950418461823257</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390742809985278</v>
+        <v>1.38566345028084</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5497884660097168</v>
+        <v>0.5462422009294263</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1100608118881084</v>
+        <v>-0.1102591382973923</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0551795441163152</v>
       </c>
       <c r="E99" t="n">
-        <v>1.310505611257854</v>
+        <v>1.30487377084184</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5501095659104621</v>
+        <v>0.5455449104586901</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1120708343060094</v>
+        <v>-0.1119874112925805</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06618761689262408</v>
       </c>
       <c r="E100" t="n">
-        <v>1.199965396407149</v>
+        <v>1.192655651607829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5559428807740026</v>
+        <v>0.5503629829889916</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1571318537106055</v>
+        <v>-0.1581644102541787</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07492495386514363</v>
       </c>
       <c r="E101" t="n">
-        <v>1.098343573897734</v>
+        <v>1.090152378390486</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4994717967590978</v>
+        <v>0.4949937123589973</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1846708922568823</v>
+        <v>-0.1838240699696226</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09191946958346335</v>
       </c>
       <c r="E102" t="n">
-        <v>1.013843931389828</v>
+        <v>1.006375210659257</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4655076121596715</v>
+        <v>0.4619912534426858</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2279359558440743</v>
+        <v>-0.2270009884860217</v>
       </c>
     </row>
   </sheetData>
